--- a/JupyterNotebooks/AveragedIntensities-SRP/BrassA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/BrassA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,67 +617,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9827593659942363</v>
+        <v>0.9828674351585014</v>
       </c>
       <c r="D3">
-        <v>0.8689481268011527</v>
+        <v>0.8644956772334293</v>
       </c>
       <c r="E3">
-        <v>1.115367435158501</v>
+        <v>1.119236311239193</v>
       </c>
       <c r="F3">
-        <v>0.9565561959654179</v>
+        <v>0.9551368876080691</v>
       </c>
       <c r="G3">
-        <v>0.9827593659942363</v>
+        <v>0.9828674351585014</v>
       </c>
       <c r="H3">
-        <v>0.8689481268011527</v>
+        <v>0.8644956772334293</v>
       </c>
       <c r="I3">
-        <v>1.061664265129683</v>
+        <v>1.064272334293948</v>
       </c>
       <c r="J3">
-        <v>1.005821325648415</v>
+        <v>1.005691642651297</v>
       </c>
       <c r="K3">
-        <v>0.9875648414985591</v>
+        <v>0.9876945244956772</v>
       </c>
       <c r="L3">
-        <v>0.915814121037464</v>
+        <v>0.9125</v>
       </c>
       <c r="M3">
-        <v>0.9827233429394813</v>
+        <v>0.9828314121037464</v>
       </c>
       <c r="N3">
-        <v>0.9827593659942363</v>
+        <v>0.9828674351585014</v>
       </c>
       <c r="O3">
-        <v>0.9921577809798271</v>
+        <v>1.119236311239193</v>
       </c>
       <c r="P3">
-        <v>1.03596181556196</v>
+        <v>0.9918659942363112</v>
       </c>
       <c r="Q3">
-        <v>0.9890249759846301</v>
+        <v>1.037186599423631</v>
       </c>
       <c r="R3">
-        <v>0.9802905859750241</v>
+        <v>0.9888664745437078</v>
       </c>
       <c r="S3">
-        <v>0.9890249759846302</v>
+        <v>0.9796229586935638</v>
       </c>
       <c r="T3">
-        <v>0.9809077809798272</v>
+        <v>0.9888664745437078</v>
       </c>
       <c r="U3">
-        <v>0.981278097982709</v>
+        <v>0.9804340778097982</v>
       </c>
       <c r="V3">
-        <v>0.9868119596541787</v>
+        <v>0.9809207492795388</v>
+      </c>
+      <c r="W3">
+        <v>0.9864868515850144</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014273812406452</v>
+        <v>1.014726858846215</v>
       </c>
       <c r="D4">
-        <v>0.994172526981501</v>
+        <v>0.9929645624063802</v>
       </c>
       <c r="E4">
-        <v>0.9883864224409793</v>
+        <v>0.9891597431088529</v>
       </c>
       <c r="F4">
-        <v>0.992498405498851</v>
+        <v>0.9922086282678663</v>
       </c>
       <c r="G4">
-        <v>1.014273812406452</v>
+        <v>1.014726858846215</v>
       </c>
       <c r="H4">
-        <v>0.994172526981501</v>
+        <v>0.9929645624063802</v>
       </c>
       <c r="I4">
-        <v>0.9959967644178358</v>
+        <v>0.9967227158767432</v>
       </c>
       <c r="J4">
-        <v>0.9895783288501978</v>
+        <v>0.9893307083464599</v>
       </c>
       <c r="K4">
-        <v>1.000265994895866</v>
+        <v>1.00056789119815</v>
       </c>
       <c r="L4">
-        <v>0.9899488775520036</v>
+        <v>0.9888279292606328</v>
       </c>
       <c r="M4">
-        <v>1.014216669549309</v>
+        <v>1.014669715989072</v>
       </c>
       <c r="N4">
-        <v>1.014273812406452</v>
+        <v>1.014726858846215</v>
       </c>
       <c r="O4">
-        <v>0.9912794747112401</v>
+        <v>0.9891597431088529</v>
       </c>
       <c r="P4">
-        <v>0.9904424139699152</v>
+        <v>0.9910621527576166</v>
       </c>
       <c r="Q4">
-        <v>0.9989442539429775</v>
+        <v>0.9906841856883596</v>
       </c>
       <c r="R4">
-        <v>0.991685784973777</v>
+        <v>0.9989503881204826</v>
       </c>
       <c r="S4">
-        <v>0.9989442539429775</v>
+        <v>0.9914443112610331</v>
       </c>
       <c r="T4">
-        <v>0.9973327918319459</v>
+        <v>0.9989503881204826</v>
       </c>
       <c r="U4">
-        <v>1.000720995946847</v>
+        <v>0.9972649481573286</v>
       </c>
       <c r="V4">
-        <v>0.9956401416304608</v>
+        <v>1.000757330295106</v>
+      </c>
+      <c r="W4">
+        <v>0.9955636296639125</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -732,67 +759,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.02832528853459</v>
+        <v>1.027405117627916</v>
       </c>
       <c r="D5">
-        <v>0.995288467902521</v>
+        <v>0.9947468055725914</v>
       </c>
       <c r="E5">
-        <v>0.9838132914256579</v>
+        <v>0.9844460558923032</v>
       </c>
       <c r="F5">
-        <v>0.9899383738257874</v>
+        <v>0.990096040474542</v>
       </c>
       <c r="G5">
-        <v>1.02832528853459</v>
+        <v>1.027405117627916</v>
       </c>
       <c r="H5">
-        <v>0.995288467902521</v>
+        <v>0.9947468055725914</v>
       </c>
       <c r="I5">
-        <v>0.9972022855553391</v>
+        <v>0.9972526944056684</v>
       </c>
       <c r="J5">
-        <v>0.9836849307075741</v>
+        <v>0.983933400679312</v>
       </c>
       <c r="K5">
-        <v>1.003434600946715</v>
+        <v>1.003194021749526</v>
       </c>
       <c r="L5">
-        <v>0.9874404005735703</v>
+        <v>0.9871327606737558</v>
       </c>
       <c r="M5">
-        <v>1.028246254610994</v>
+        <v>1.027326083704321</v>
       </c>
       <c r="N5">
-        <v>1.02832528853459</v>
+        <v>1.027405117627916</v>
       </c>
       <c r="O5">
-        <v>0.9895508796640895</v>
+        <v>0.9844460558923032</v>
       </c>
       <c r="P5">
-        <v>0.9868758326257226</v>
+        <v>0.9895964307324473</v>
       </c>
       <c r="Q5">
-        <v>1.002475682620923</v>
+        <v>0.9872710481834226</v>
       </c>
       <c r="R5">
-        <v>0.9896800443846555</v>
+        <v>1.00219932636427</v>
       </c>
       <c r="S5">
-        <v>1.002475682620923</v>
+        <v>0.9897629673131455</v>
       </c>
       <c r="T5">
-        <v>0.9993413554221391</v>
+        <v>1.002199326364271</v>
       </c>
       <c r="U5">
-        <v>1.005138142044629</v>
+        <v>0.9991735048918384</v>
       </c>
       <c r="V5">
-        <v>0.9961409549339694</v>
+        <v>1.004819827439054</v>
+      </c>
+      <c r="W5">
+        <v>0.996025862134452</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9971384915090655</v>
+        <v>0.9963322572648834</v>
       </c>
       <c r="D6">
-        <v>0.9930838620350086</v>
+        <v>0.9933142685727048</v>
       </c>
       <c r="E6">
-        <v>0.997288228705864</v>
+        <v>0.9972823372050096</v>
       </c>
       <c r="F6">
-        <v>0.9937920598334845</v>
+        <v>0.9939463628741484</v>
       </c>
       <c r="G6">
-        <v>0.9971384915090655</v>
+        <v>0.9963322572648834</v>
       </c>
       <c r="H6">
-        <v>0.9930838620350086</v>
+        <v>0.9933142685727048</v>
       </c>
       <c r="I6">
-        <v>0.9966617042807837</v>
+        <v>0.9965574028321286</v>
       </c>
       <c r="J6">
-        <v>0.9962921040978917</v>
+        <v>0.9964732628136479</v>
       </c>
       <c r="K6">
-        <v>0.9955654810549299</v>
+        <v>0.9953858071177378</v>
       </c>
       <c r="L6">
-        <v>0.9917345868566539</v>
+        <v>0.9919726341402613</v>
       </c>
       <c r="M6">
-        <v>0.9970969078381232</v>
+        <v>0.9962817010444688</v>
       </c>
       <c r="N6">
-        <v>0.9971384915090655</v>
+        <v>0.9963322572648834</v>
       </c>
       <c r="O6">
-        <v>0.9951860453704363</v>
+        <v>0.9972823372050096</v>
       </c>
       <c r="P6">
-        <v>0.9955401442696743</v>
+        <v>0.9952983028888571</v>
       </c>
       <c r="Q6">
-        <v>0.9958368607499795</v>
+        <v>0.995614350039579</v>
       </c>
       <c r="R6">
-        <v>0.9947213835247858</v>
+        <v>0.9956429543475326</v>
       </c>
       <c r="S6">
-        <v>0.9958368607499795</v>
+        <v>0.9948476562172875</v>
       </c>
       <c r="T6">
-        <v>0.9953256605208557</v>
+        <v>0.9956429543475326</v>
       </c>
       <c r="U6">
-        <v>0.9956882267184977</v>
+        <v>0.9952188064791865</v>
       </c>
       <c r="V6">
-        <v>0.9951945647967102</v>
+        <v>0.995441496636326</v>
+      </c>
+      <c r="W6">
+        <v>0.9951580416025652</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997038147374449</v>
+        <v>1.362554351233539</v>
       </c>
       <c r="D7">
-        <v>0.9980247514947537</v>
+        <v>0.5804516619965533</v>
       </c>
       <c r="E7">
-        <v>0.9926347079694809</v>
+        <v>0.9995857591453288</v>
       </c>
       <c r="F7">
-        <v>0.9945674475853318</v>
+        <v>0.9335841595505531</v>
       </c>
       <c r="G7">
-        <v>0.9997038147374449</v>
+        <v>1.362554351233539</v>
       </c>
       <c r="H7">
-        <v>0.9980247514947537</v>
+        <v>0.5804516619965533</v>
       </c>
       <c r="I7">
-        <v>0.9945417256556335</v>
+        <v>1.110876509290587</v>
       </c>
       <c r="J7">
-        <v>0.9951981430911242</v>
+        <v>0.8787831444641117</v>
       </c>
       <c r="K7">
-        <v>0.9960335587309795</v>
+        <v>1.147329277053801</v>
       </c>
       <c r="L7">
-        <v>0.994183029362718</v>
+        <v>0.7417256116831298</v>
       </c>
       <c r="M7">
-        <v>0.9996676384160763</v>
+        <v>1.362554351233539</v>
       </c>
       <c r="N7">
-        <v>0.9997038147374449</v>
+        <v>1.362554351233539</v>
       </c>
       <c r="O7">
-        <v>0.9953297297321173</v>
+        <v>0.9995857591453288</v>
       </c>
       <c r="P7">
-        <v>0.9936010777774064</v>
+        <v>0.7900187105709411</v>
       </c>
       <c r="Q7">
-        <v>0.9967877580672265</v>
+        <v>0.966584959347941</v>
       </c>
       <c r="R7">
-        <v>0.9950756356831888</v>
+        <v>0.9808639241251406</v>
       </c>
       <c r="S7">
-        <v>0.9967877580672265</v>
+        <v>0.8378738602308117</v>
       </c>
       <c r="T7">
-        <v>0.9962326804467528</v>
+        <v>0.9808639241251406</v>
       </c>
       <c r="U7">
-        <v>0.9969269073048913</v>
+        <v>0.9690439829814936</v>
       </c>
       <c r="V7">
-        <v>0.9956108973284332</v>
+        <v>1.047746056631903</v>
+      </c>
+      <c r="W7">
+        <v>0.9693613093022004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1.054103590103978</v>
+      </c>
+      <c r="D8">
+        <v>0.8850313190419216</v>
+      </c>
+      <c r="E8">
+        <v>1.10746454520559</v>
+      </c>
+      <c r="F8">
+        <v>0.9398134733836196</v>
+      </c>
+      <c r="G8">
+        <v>1.054103590103978</v>
+      </c>
+      <c r="H8">
+        <v>0.8850313190419216</v>
+      </c>
+      <c r="I8">
+        <v>1.061021319357123</v>
+      </c>
+      <c r="J8">
+        <v>0.9826817158169076</v>
+      </c>
+      <c r="K8">
+        <v>0.9899436102602746</v>
+      </c>
+      <c r="L8">
+        <v>0.9105763415060486</v>
+      </c>
+      <c r="M8">
+        <v>1.054103590103978</v>
+      </c>
+      <c r="N8">
+        <v>1.054103590103978</v>
+      </c>
+      <c r="O8">
+        <v>1.10746454520559</v>
+      </c>
+      <c r="P8">
+        <v>0.9962479321237556</v>
+      </c>
+      <c r="Q8">
+        <v>1.023639009294605</v>
+      </c>
+      <c r="R8">
+        <v>1.015533151450496</v>
+      </c>
+      <c r="S8">
+        <v>0.9774364458770437</v>
+      </c>
+      <c r="T8">
+        <v>1.015533151450496</v>
+      </c>
+      <c r="U8">
+        <v>0.996603231933777</v>
+      </c>
+      <c r="V8">
+        <v>1.008103303567817</v>
+      </c>
+      <c r="W8">
+        <v>0.9913294893344328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.55</v>
+      </c>
+      <c r="D9">
+        <v>0.44</v>
+      </c>
+      <c r="E9">
+        <v>0.83</v>
+      </c>
+      <c r="F9">
+        <v>0.99</v>
+      </c>
+      <c r="G9">
+        <v>1.55</v>
+      </c>
+      <c r="H9">
+        <v>0.44</v>
+      </c>
+      <c r="I9">
+        <v>1.08</v>
+      </c>
+      <c r="J9">
+        <v>0.79</v>
+      </c>
+      <c r="K9">
+        <v>1.27</v>
+      </c>
+      <c r="L9">
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>1.55</v>
+      </c>
+      <c r="N9">
+        <v>1.55</v>
+      </c>
+      <c r="O9">
+        <v>0.83</v>
+      </c>
+      <c r="P9">
+        <v>0.635</v>
+      </c>
+      <c r="Q9">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="T9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.9524999999999999</v>
+      </c>
+      <c r="V9">
+        <v>1.072</v>
+      </c>
+      <c r="W9">
+        <v>0.9562499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2.88</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.65</v>
+      </c>
+      <c r="F10">
+        <v>0.67</v>
+      </c>
+      <c r="G10">
+        <v>2.88</v>
+      </c>
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10">
+        <v>1.29</v>
+      </c>
+      <c r="J10">
+        <v>0.41</v>
+      </c>
+      <c r="K10">
+        <v>1.52</v>
+      </c>
+      <c r="L10">
+        <v>0.24</v>
+      </c>
+      <c r="M10">
+        <v>2.88</v>
+      </c>
+      <c r="N10">
+        <v>2.88</v>
+      </c>
+      <c r="O10">
+        <v>0.65</v>
+      </c>
+      <c r="P10">
+        <v>0.375</v>
+      </c>
+      <c r="Q10">
+        <v>0.66</v>
+      </c>
+      <c r="R10">
+        <v>1.21</v>
+      </c>
+      <c r="S10">
+        <v>0.4733333333333333</v>
+      </c>
+      <c r="T10">
+        <v>1.21</v>
+      </c>
+      <c r="U10">
+        <v>1.075</v>
+      </c>
+      <c r="V10">
+        <v>1.436</v>
+      </c>
+      <c r="W10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9952003810338304</v>
+      </c>
+      <c r="D11">
+        <v>0.9943885026122149</v>
+      </c>
+      <c r="E11">
+        <v>0.9959807460024819</v>
+      </c>
+      <c r="F11">
+        <v>0.9949914076454665</v>
+      </c>
+      <c r="G11">
+        <v>0.9952003810338304</v>
+      </c>
+      <c r="H11">
+        <v>0.9943885026122149</v>
+      </c>
+      <c r="I11">
+        <v>0.9955251611768847</v>
+      </c>
+      <c r="J11">
+        <v>0.9969122661815757</v>
+      </c>
+      <c r="K11">
+        <v>0.9954119748542649</v>
+      </c>
+      <c r="L11">
+        <v>0.9931748166055152</v>
+      </c>
+      <c r="M11">
+        <v>0.995153739213004</v>
+      </c>
+      <c r="N11">
+        <v>0.9952003810338304</v>
+      </c>
+      <c r="O11">
+        <v>0.9959807460024819</v>
+      </c>
+      <c r="P11">
+        <v>0.9951846243073483</v>
+      </c>
+      <c r="Q11">
+        <v>0.9954860768239742</v>
+      </c>
+      <c r="R11">
+        <v>0.995189876549509</v>
+      </c>
+      <c r="S11">
+        <v>0.9951202187533877</v>
+      </c>
+      <c r="T11">
+        <v>0.995189876549509</v>
+      </c>
+      <c r="U11">
+        <v>0.9951402593234984</v>
+      </c>
+      <c r="V11">
+        <v>0.9951522836655649</v>
+      </c>
+      <c r="W11">
+        <v>0.9951981570140292</v>
       </c>
     </row>
   </sheetData>
